--- a/biology/Botanique/Rosa_helenae/Rosa_helenae.xlsx
+++ b/biology/Botanique/Rosa_helenae/Rosa_helenae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa helenae est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier grimpant, classé dans la section des Synstylae, originaire de Chine (Gansu, Guizhou, Hubei, Shaanxi, Sichuan et Yunnan) ainsi que de Thaïlande et du Viêt Nam.
 On le rencontre dans les lisières de forêts, les zones de broussailles, sur les rives des cours d'eau et sur les pentes entre 1000 et 3 000 mètres d'altitude.
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau sarmenteux dont les tiges, robustes, faiblement épineuses, peuvent atteindre 9 mètres de long, poussant dans les haies ou formant des fourrés.
 Les feuilles imparipennées ont généralement sept à neuf folioles ovales lancéolées, chaque foliole, lancéolée-acuminée, ayant 3 à 5 cm de long sur 1 à 3 de large.
@@ -552,10 +566,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est parfois cultivée comme « rosier botanique », pour escalader des arbres.
-Hybride : 'Lykkefund' (Olsen 1930) très vigoureux (7 à 8 mètres), à tiges lisses et très gros bouquets de fleurs simples jaune crème[1].
+Hybride : 'Lykkefund' (Olsen 1930) très vigoureux (7 à 8 mètres), à tiges lisses et très gros bouquets de fleurs simples jaune crème.
 </t>
         </is>
       </c>
